--- a/test_mule_CSI Dissemination Annual.xlsx
+++ b/test_mule_CSI Dissemination Annual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24606"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://billingsclinic.sharepoint.com/sites/CSI/CSI Team Shared Documents/Ye Olde V Drive/RESEARCH COORDINATION COUNCIL/CSI Metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://billingsclinic.sharepoint.com/sites/CSI/CSI Team Shared Documents/Ye Olde V Drive/STAFF Folders/Ben/csi_portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="907" documentId="114_{560E45E4-92A2-41F8-BA72-C1C7BCB8E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D2B2CA3-F7D6-42FA-879A-C2326CCE1F20}"/>
+  <xr:revisionPtr revIDLastSave="951" documentId="114_{560E45E4-92A2-41F8-BA72-C1C7BCB8E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{699C5D56-43A1-4B75-A2FF-1CF5A7BCB48D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" xr2:uid="{0CF4C691-2C56-429D-A241-4B9D46E78E07}"/>
+    <workbookView xWindow="32745" yWindow="2640" windowWidth="20385" windowHeight="21285" firstSheet="4" activeTab="4" xr2:uid="{0CF4C691-2C56-429D-A241-4B9D46E78E07}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="6" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="408">
   <si>
     <t>Authors</t>
   </si>
@@ -174,6 +174,9 @@
     <t>pubmed_id</t>
   </si>
   <si>
+    <t>pi_gsID</t>
+  </si>
+  <si>
     <t>Robert L Minor Jr, Thomas Maley, Diana Jenkins, Ya-Huei Li</t>
   </si>
   <si>
@@ -249,6 +252,9 @@
   </si>
   <si>
     <t>_Re3VWB3Y0AC</t>
+  </si>
+  <si>
+    <t>Xj4zg4wAAAAJ</t>
   </si>
   <si>
     <t>Besel, J.M. et al.</t>
@@ -534,6 +540,9 @@
     <t>kNdYIx-mwKoC</t>
   </si>
   <si>
+    <t>LbmpNPkAAAAJ</t>
+  </si>
+  <si>
     <t>Lisa Ranes</t>
   </si>
   <si>
@@ -777,6 +786,9 @@
   </si>
   <si>
     <t>30863188</t>
+  </si>
+  <si>
+    <t>eA10HuAAAAAJ</t>
   </si>
   <si>
     <t xml:space="preserve">Diane Hurd, Mariela Herrera, Jeannine M Brant, Nicholas C Coombs, Eric Arzubi </t>
@@ -1232,6 +1244,12 @@
   </si>
   <si>
     <t xml:space="preserve">HIV AIDS (Auckl). Mar 9; 10: 19-31. </t>
+  </si>
+  <si>
+    <t>K3LRdlH-MEoC</t>
+  </si>
+  <si>
+    <t>pR6FvkoAAAAJ</t>
   </si>
   <si>
     <t>Ciemins EL, Coon PJ, Coombs NC, Holloway B, Mullette EJ, Dudley, WN.</t>
@@ -4430,13 +4448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEA8BB0-1D9A-46A5-843C-9DE3C32CE727}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="39.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="5" customWidth="1"/>
@@ -4765,7 +4783,7 @@
     <col min="16133" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="37" customFormat="1" ht="63">
+    <row r="1" spans="1:10" s="37" customFormat="1" ht="63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4793,269 +4811,275 @@
       <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="47.25">
+      <c r="J1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="47.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="69">
         <v>33472992</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="47.1" customHeight="1">
+    <row r="3" spans="1:10" ht="47.1" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="47.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="47.25">
       <c r="A4" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="47.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="63">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="47.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="31.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>33829323</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="45.95" customHeight="1">
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45.95" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45.95" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45.95" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="47.25">
+    </row>
+    <row r="10" spans="1:10" ht="47.25">
       <c r="A10" s="56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" s="69">
         <v>33906491</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="78.75">
+    <row r="11" spans="1:10" ht="78.75">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="63" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="63" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I12">
         <v>34277942</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5">
+    <row r="13" spans="1:10" ht="31.5">
       <c r="A13" s="55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1">
+      <c r="A14" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" customHeight="1">
-      <c r="A14" s="55" t="s">
-        <v>55</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="47.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="63">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15" s="69">
         <v>34129197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="78.75">
+    <row r="16" spans="1:10" ht="78.75">
       <c r="A16" s="41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="61">
         <v>44281</v>
@@ -5063,16 +5087,16 @@
     </row>
     <row r="17" spans="1:5" ht="78.75">
       <c r="A17" s="41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" s="61">
         <v>44461</v>
@@ -5087,14 +5111,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE00A0F4-9C23-41CC-95B1-A851BA1B112D}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="39.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="5" customWidth="1"/>
@@ -5422,7 +5446,7 @@
     <col min="16133" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="37" customFormat="1" ht="47.25">
+    <row r="1" spans="1:10" s="37" customFormat="1" ht="63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5450,71 +5474,77 @@
       <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="78.75">
+      <c r="J1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="94.5">
       <c r="A2" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="69">
         <v>31898913</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="47.25">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" s="5">
         <v>31422696</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="47.25">
+    <row r="4" spans="1:10" ht="47.25">
       <c r="A4" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="66">
         <v>43891</v>
@@ -5523,24 +5553,27 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>32218002</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="31.5">
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="47.25">
       <c r="A5" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="64">
         <v>43918</v>
@@ -5549,228 +5582,243 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5">
+    <row r="6" spans="1:10" ht="31.5">
       <c r="A6" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" s="18">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I6" s="69">
         <v>32441688</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="31.5">
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="31.5">
       <c r="A7" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="63">
+    <row r="8" spans="1:10" ht="63">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I8" s="69">
         <v>32650886</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="47.25">
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="47.25">
       <c r="A9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>99</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I9" s="69">
         <v>32307293</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="47.25">
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="47.25">
       <c r="A10" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" s="69">
         <v>32835493</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="63">
+      <c r="J10" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="63">
       <c r="A11" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="95.25" customHeight="1">
+    <row r="12" spans="1:10" ht="95.25" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F12" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="76.5" customHeight="1">
+    <row r="13" spans="1:10" ht="76.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I13" s="69">
         <v>32985338</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="88.5" customHeight="1">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="88.5" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F14" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5">
+    <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" s="65">
         <v>44111</v>
@@ -5779,47 +5827,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="47.25">
+    <row r="16" spans="1:10" ht="47.25">
       <c r="A16" s="40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F16" s="18">
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I16">
         <v>33272246</v>
       </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="47.25">
       <c r="A17" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F17" s="25">
         <v>0</v>
@@ -5827,19 +5878,19 @@
     </row>
     <row r="18" spans="1:6" ht="47.25">
       <c r="A18" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F18" s="18">
         <v>0</v>
@@ -5847,16 +5898,16 @@
     </row>
     <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E19" s="65">
         <v>44119</v>
@@ -5867,19 +5918,19 @@
     </row>
     <row r="20" spans="1:6" ht="31.5">
       <c r="A20" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F20" s="18">
         <v>0</v>
@@ -5887,19 +5938,19 @@
     </row>
     <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F21" s="18">
         <v>0</v>
@@ -5907,19 +5958,19 @@
     </row>
     <row r="22" spans="1:6" ht="31.5">
       <c r="A22" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F22" s="18">
         <v>0</v>
@@ -5927,19 +5978,19 @@
     </row>
     <row r="23" spans="1:6" ht="31.5">
       <c r="A23" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" s="18">
         <v>0</v>
@@ -5947,19 +5998,19 @@
     </row>
     <row r="24" spans="1:6" ht="31.5">
       <c r="A24" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="65" t="s">
         <v>159</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>156</v>
       </c>
       <c r="F24" s="18">
         <v>0</v>
@@ -5967,19 +6018,19 @@
     </row>
     <row r="25" spans="1:6" ht="31.5">
       <c r="A25" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F25" s="18">
         <v>0</v>
@@ -5987,19 +6038,19 @@
     </row>
     <row r="26" spans="1:6" ht="47.25">
       <c r="A26" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="18">
         <v>0</v>
@@ -6021,7 +6072,7 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1">
@@ -6139,7 +6190,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -6149,24 +6200,24 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.1">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="45" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="48"/>
       <c r="H1" s="47"/>
@@ -6234,7 +6285,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6247,13 +6298,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9145F4-A4D6-4E89-8D39-C56F0736F4E5}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="39.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
@@ -6262,9 +6313,10 @@
     <col min="5" max="5" width="29.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="59" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="10"/>
+    <col min="10" max="10" width="18.28515625" style="10" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="10"/>
     <col min="257" max="257" width="18.28515625" style="10" customWidth="1"/>
     <col min="258" max="258" width="16.42578125" style="10" customWidth="1"/>
     <col min="259" max="259" width="20.140625" style="10" customWidth="1"/>
@@ -6582,7 +6634,7 @@
     <col min="16133" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="47.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="47.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6596,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -6610,46 +6662,52 @@
       <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="63">
+      <c r="J1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="63">
       <c r="A2" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="10">
         <v>4</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I2" s="59">
         <v>30570589</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="78.75">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="78.75">
       <c r="A3" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="8">
         <v>43516</v>
@@ -6661,24 +6719,27 @@
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="63" customHeight="1">
+        <v>182</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="63" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E4" s="14">
         <v>43497</v>
@@ -6688,24 +6749,27 @@
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="47.25">
+        <v>188</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="47.25">
       <c r="A5" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E5" s="8">
         <v>43556</v>
@@ -6715,18 +6779,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="47.25">
+    <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E6" s="8">
         <v>43559</v>
@@ -6736,18 +6800,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5">
+    <row r="7" spans="1:10" ht="31.5">
       <c r="A7" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E7" s="14">
         <v>43566</v>
@@ -6757,18 +6821,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="48" customHeight="1">
+    <row r="8" spans="1:10" ht="48" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E8" s="14">
         <v>43566</v>
@@ -6778,18 +6842,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="31.5">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E9" s="14">
         <v>43566</v>
@@ -6799,18 +6863,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5">
+    <row r="10" spans="1:10" ht="31.5">
       <c r="A10" s="13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E10" s="8">
         <v>43566</v>
@@ -6820,18 +6884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="47.25">
+    <row r="11" spans="1:10" ht="47.25">
       <c r="A11" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E11" s="8">
         <v>43567</v>
@@ -6843,18 +6907,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:10" ht="31.5">
       <c r="A12" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E12" s="8">
         <v>43566</v>
@@ -6866,18 +6930,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="47.25">
+    <row r="13" spans="1:10" ht="47.25">
       <c r="A13" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E13" s="8">
         <v>43584</v>
@@ -6889,18 +6953,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:10" ht="47.25">
       <c r="A14" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E14" s="8">
         <v>43605</v>
@@ -6912,18 +6976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="47.25">
+    <row r="15" spans="1:10" ht="47.25">
       <c r="A15" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E15" s="8">
         <v>43606</v>
@@ -6935,48 +6999,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1" ht="94.5">
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="110.25">
       <c r="A16" s="21" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26">
         <v>5</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I16" s="68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="26" customFormat="1" ht="31.5">
+        <v>222</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="47.25">
       <c r="A17" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26">
@@ -6984,18 +7051,18 @@
       </c>
       <c r="I17" s="68"/>
     </row>
-    <row r="18" spans="1:9" ht="110.25">
+    <row r="18" spans="1:10" ht="110.25">
       <c r="A18" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E18" s="8">
         <v>43643</v>
@@ -7007,18 +7074,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:10" ht="63">
       <c r="A19" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E19" s="27">
         <v>43617</v>
@@ -7028,24 +7095,27 @@
         <v>4</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="61.5" customHeight="1">
+        <v>234</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="61.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E20" s="27">
         <v>43617</v>
@@ -7055,24 +7125,27 @@
         <v>0</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="63">
+        <v>239</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="63">
       <c r="A21" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E21" s="27">
         <v>43617</v>
@@ -7085,18 +7158,18 @@
         <v>31060877</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25">
+    <row r="22" spans="1:10" ht="47.25">
       <c r="A22" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E22" s="27">
         <v>43617</v>
@@ -7106,96 +7179,102 @@
         <v>2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="47.25">
+        <v>247</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="47.25">
       <c r="A23" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="10">
         <v>10</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="78.75">
+        <v>253</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="78.75">
       <c r="A24" s="16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="47.25">
+    <row r="25" spans="1:10" ht="47.25">
       <c r="A25" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.5">
+    <row r="26" spans="1:10" ht="31.5">
       <c r="A26" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F26" s="18">
         <v>0</v>
@@ -7204,48 +7283,51 @@
         <v>3</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I26">
         <v>31626609</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="110.25">
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="110.25">
       <c r="A27" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="10">
         <v>2</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E28" s="14">
         <v>43762</v>
@@ -7255,18 +7337,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E29" s="14">
         <v>43762</v>
@@ -7276,18 +7358,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E30" s="14">
         <v>43762</v>
@@ -7297,42 +7379,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="65.25" customHeight="1">
+    <row r="31" spans="1:10" ht="65.25" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="31.5">
+    <row r="32" spans="1:10" ht="31.5">
       <c r="A32" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="10">
@@ -7341,19 +7423,19 @@
     </row>
     <row r="33" spans="1:7" ht="47.25">
       <c r="A33" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="10">
@@ -7362,67 +7444,67 @@
     </row>
     <row r="34" spans="1:7" ht="31.5">
       <c r="A34" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="29"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="29"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="29"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -7431,16 +7513,16 @@
     </row>
     <row r="39" spans="1:7" ht="47.25">
       <c r="A39" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E39" s="29">
         <v>2019</v>
@@ -7452,16 +7534,16 @@
     </row>
     <row r="40" spans="1:7" ht="47.25">
       <c r="A40" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E40" s="29">
         <v>2019</v>
@@ -7473,16 +7555,16 @@
     </row>
     <row r="41" spans="1:7" ht="31.5">
       <c r="A41" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E41" s="29">
         <v>2019</v>
@@ -7494,16 +7576,16 @@
     </row>
     <row r="42" spans="1:7" ht="31.5">
       <c r="A42" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E42" s="29">
         <v>2019</v>
@@ -7512,17 +7594,17 @@
     </row>
     <row r="43" spans="1:7" ht="31.5">
       <c r="A43" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F43" s="18"/>
     </row>
@@ -7539,13 +7621,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853950B4-10FB-4ED4-A5D5-26AF08F524BF}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
@@ -7873,7 +7955,7 @@
     <col min="16133" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="47.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7887,7 +7969,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -7901,19 +7983,22 @@
       <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.5">
+      <c r="J1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E2" s="60">
         <v>43113</v>
@@ -7923,18 +8008,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="63">
+    <row r="3" spans="1:10" ht="63">
       <c r="A3" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E3" s="61">
         <v>43168</v>
@@ -7945,19 +8030,25 @@
       <c r="G3" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="47.25">
+      <c r="H3" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="47.25">
       <c r="A4" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E4" s="61">
         <v>43211</v>
@@ -7969,18 +8060,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="47.25">
+    <row r="5" spans="1:10" ht="47.25">
       <c r="A5" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E5" s="61">
         <v>43216</v>
@@ -7990,18 +8081,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="47.25">
+    <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E6" s="61">
         <v>43217</v>
@@ -8011,18 +8102,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5">
+    <row r="7" spans="1:10" ht="31.5">
       <c r="A7" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E7" s="62">
         <v>43238</v>
@@ -8034,18 +8125,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5">
+    <row r="8" spans="1:10" ht="31.5">
       <c r="A8" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E8" s="62">
         <v>43239</v>
@@ -8055,18 +8146,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="31.5">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E9" s="62">
         <v>2018</v>
@@ -8076,18 +8167,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="63">
+    <row r="10" spans="1:10" ht="63">
       <c r="A10" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E10" s="62">
         <v>43238</v>
@@ -8099,18 +8190,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:10" ht="31.5">
       <c r="A11" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="E11" s="62">
         <v>43238</v>
@@ -8122,18 +8213,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:10" ht="63">
       <c r="A12" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E12" s="60">
         <v>43239</v>
@@ -8145,18 +8236,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:10" ht="63">
       <c r="A13" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E13" s="60">
         <v>43240</v>
@@ -8168,18 +8259,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" customHeight="1">
+    <row r="14" spans="1:10" ht="31.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E14" s="60">
         <v>43240</v>
@@ -8191,18 +8282,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" customHeight="1">
+    <row r="15" spans="1:10" ht="31.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E15" s="62">
         <v>43243</v>
@@ -8214,18 +8305,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="64.5" customHeight="1">
+    <row r="16" spans="1:10" ht="64.5" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E16" s="62">
         <v>43243</v>
@@ -8239,19 +8330,19 @@
     </row>
     <row r="17" spans="1:7" ht="64.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="10">
@@ -8260,19 +8351,19 @@
     </row>
     <row r="18" spans="1:7" ht="64.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="10">
@@ -8281,16 +8372,16 @@
     </row>
     <row r="19" spans="1:7" ht="64.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E19" s="62">
         <v>43344</v>
@@ -8302,19 +8393,19 @@
     </row>
     <row r="20" spans="1:7" ht="63.75" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="10">
@@ -8323,19 +8414,19 @@
     </row>
     <row r="21" spans="1:7" ht="63.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="10">
@@ -8344,16 +8435,16 @@
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E22" s="61">
         <v>43358</v>
@@ -8367,19 +8458,19 @@
     </row>
     <row r="23" spans="1:7" ht="35.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F23" s="18">
         <v>0</v>
@@ -8390,19 +8481,19 @@
     </row>
     <row r="24" spans="1:7" ht="60.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="10">
@@ -8411,16 +8502,16 @@
     </row>
     <row r="25" spans="1:7" ht="69" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E25" s="62">
         <v>43374</v>
@@ -8434,16 +8525,16 @@
     </row>
     <row r="26" spans="1:7" ht="69" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E26" s="62">
         <v>43374</v>
@@ -8455,19 +8546,19 @@
     </row>
     <row r="27" spans="1:7" ht="50.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F27" s="18">
         <v>0</v>
@@ -8478,16 +8569,16 @@
     </row>
     <row r="28" spans="1:7" ht="50.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E28" s="62">
         <v>43405</v>
@@ -8499,16 +8590,16 @@
     </row>
     <row r="29" spans="1:7" ht="63">
       <c r="A29" s="4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E29" s="62">
         <v>43406</v>
@@ -8522,16 +8613,16 @@
     </row>
     <row r="30" spans="1:7" ht="81.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E30" s="61">
         <v>43405</v>
@@ -8543,19 +8634,19 @@
     </row>
     <row r="31" spans="1:7" ht="81.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="10">
@@ -8564,16 +8655,16 @@
     </row>
     <row r="32" spans="1:7" ht="63">
       <c r="A32" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E32" s="62">
         <v>43413</v>
@@ -8587,16 +8678,16 @@
     </row>
     <row r="33" spans="1:7" ht="47.25">
       <c r="A33" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E33" s="62">
         <v>43420</v>
@@ -8610,16 +8701,16 @@
     </row>
     <row r="34" spans="1:7" ht="41.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E34" s="62">
         <v>43420</v>
@@ -8633,16 +8724,16 @@
     </row>
     <row r="35" spans="1:7" ht="64.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E35" s="61">
         <v>43405</v>
@@ -8654,19 +8745,19 @@
     </row>
     <row r="36" spans="1:7" ht="64.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="10">
@@ -8675,19 +8766,19 @@
     </row>
     <row r="37" spans="1:7" ht="64.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="10">
@@ -8696,19 +8787,19 @@
     </row>
     <row r="38" spans="1:7" ht="64.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="10">
@@ -8717,19 +8808,19 @@
     </row>
     <row r="39" spans="1:7" ht="64.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E39" s="61" t="s">
         <v>394</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>388</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="10">
@@ -8738,19 +8829,19 @@
     </row>
     <row r="40" spans="1:7" ht="64.5" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="10">
@@ -8781,7 +8872,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="30" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="33"/>
@@ -8792,19 +8883,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8855,17 +8946,17 @@
         <v>0</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="30" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="30" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -8875,6 +8966,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8904F343F09E84E8B66FA7F8ABBA2AA" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f455b6bd6c652f987d107dad4bc5de7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1993b75c-cdf6-4b17-a163-223a419f32c1" xmlns:ns3="b66b969c-610a-4784-8d55-f605b78a2d1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83d50c2ab2449c25075cf866dbda91ef" ns2:_="" ns3:_="">
     <xsd:import namespace="1993b75c-cdf6-4b17-a163-223a419f32c1"/>
@@ -9091,27 +9191,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <SharedWithUsers xmlns="b66b969c-610a-4784-8d55-f605b78a2d1a">
+      <UserInfo>
+        <DisplayName>Honaker, Katherine A</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DCC54E0-7827-4D53-A17F-8216101CAD87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB127BD6-329C-48B4-8B2D-89EB27C7DFF5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB127BD6-329C-48B4-8B2D-89EB27C7DFF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DCC54E0-7827-4D53-A17F-8216101CAD87}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
